--- a/nodes_source_analyses/households/households_water_heater_network_gas.converter.xlsx
+++ b/nodes_source_analyses/households/households_water_heater_network_gas.converter.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/households/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="860" yWindow="160" windowWidth="25040" windowHeight="15500" tabRatio="762"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="25040" windowHeight="15500" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -31,8 +36,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -287,9 +295,6 @@
   </si>
   <si>
     <t>Output to csv</t>
-  </si>
-  <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
   </si>
   <si>
     <t>Cost</t>
@@ -442,6 +447,10 @@
   <si>
     <t>ETM Library URL</t>
   </si>
+  <si>
+    <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
+</t>
+  </si>
 </sst>
 </file>
 
@@ -450,9 +459,9 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * #,##0.00\-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -633,11 +642,6 @@
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <u/>
@@ -1292,7 +1296,7 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1303,43 +1307,43 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="21" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1348,8 +1352,8 @@
     <xf numFmtId="2" fontId="21" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1368,10 +1372,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1401,7 +1405,7 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1418,7 +1422,7 @@
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1433,7 +1437,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="15" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1456,11 +1460,11 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1493,31 +1497,31 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1779,80 +1783,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>165100</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>3949700</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes to the ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2008,7 +1947,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2445,52 +2384,52 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="26" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="44.125" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="18"/>
+    <col min="1" max="1" width="3.42578125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="24" customFormat="1">
+    <row r="1" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22"/>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
     </row>
-    <row r="2" spans="1:3" ht="20">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="25" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="25"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>66</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>19</v>
@@ -2499,29 +2438,29 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="91" t="s">
         <v>67</v>
       </c>
       <c r="C9" s="92"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="93"/>
       <c r="C10" s="94"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="93" t="s">
         <v>68</v>
@@ -2530,33 +2469,33 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" thickBot="1">
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="93"/>
       <c r="C12" s="14" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" thickBot="1">
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="93"/>
       <c r="C13" s="96" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="93"/>
       <c r="C14" s="94" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="93"/>
       <c r="C15" s="94"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="93" t="s">
         <v>73</v>
@@ -2565,49 +2504,49 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="93"/>
       <c r="C17" s="98" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="93"/>
       <c r="C18" s="99" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="93"/>
       <c r="C19" s="100" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="101"/>
       <c r="C20" s="102" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="101"/>
       <c r="C21" s="103" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="101"/>
       <c r="C22" s="104" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="101"/>
       <c r="C23" s="105" t="s">
         <v>81</v>
@@ -2616,49 +2555,44 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:K40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="34" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="34" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="34" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="34" customWidth="1"/>
     <col min="3" max="3" width="46" style="34" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="34" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="34" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="34" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="34" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="34" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="34" customWidth="1"/>
     <col min="7" max="7" width="45" style="34" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="34" customWidth="1"/>
-    <col min="9" max="9" width="47.25" style="34" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="34" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="34"/>
+    <col min="8" max="8" width="5.140625" style="34" customWidth="1"/>
+    <col min="9" max="9" width="47.28515625" style="34" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="34" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
       <c r="F1" s="32"/>
       <c r="G1" s="32"/>
     </row>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="155" t="s">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="C2" s="156"/>
       <c r="D2" s="156"/>
@@ -2666,7 +2600,7 @@
       <c r="F2" s="32"/>
       <c r="G2" s="32"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="158"/>
       <c r="C3" s="159"/>
       <c r="D3" s="159"/>
@@ -2674,7 +2608,7 @@
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="161"/>
       <c r="C4" s="162"/>
       <c r="D4" s="162"/>
@@ -2682,10 +2616,10 @@
       <c r="F4" s="32"/>
       <c r="G4" s="32"/>
     </row>
-    <row r="5" spans="2:11" ht="16" thickBot="1">
+    <row r="5" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D5" s="32"/>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="35"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -2696,7 +2630,7 @@
       <c r="I6" s="16"/>
       <c r="J6" s="36"/>
     </row>
-    <row r="7" spans="2:11" s="41" customFormat="1" ht="18">
+    <row r="7" spans="2:11" s="41" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B7" s="106"/>
       <c r="C7" s="15" t="s">
         <v>31</v>
@@ -2717,7 +2651,7 @@
       </c>
       <c r="J7" s="112"/>
     </row>
-    <row r="8" spans="2:11" s="41" customFormat="1" ht="19" customHeight="1">
+    <row r="8" spans="2:11" s="41" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="20"/>
       <c r="C8" s="14"/>
       <c r="D8" s="28"/>
@@ -2728,10 +2662,10 @@
       <c r="I8" s="14"/>
       <c r="J8" s="42"/>
     </row>
-    <row r="9" spans="2:11" s="41" customFormat="1" ht="19" customHeight="1" thickBot="1">
+    <row r="9" spans="2:11" s="41" customFormat="1" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="20"/>
       <c r="C9" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="14"/>
@@ -2741,10 +2675,10 @@
       <c r="I9" s="14"/>
       <c r="J9" s="42"/>
     </row>
-    <row r="10" spans="2:11" s="41" customFormat="1" ht="16" customHeight="1" thickBot="1">
+    <row r="10" spans="2:11" s="41" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="20"/>
       <c r="C10" s="135" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>4</v>
@@ -2757,11 +2691,11 @@
       <c r="G10" s="33"/>
       <c r="H10" s="27"/>
       <c r="I10" s="148" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J10" s="42"/>
     </row>
-    <row r="11" spans="2:11" ht="16" thickBot="1">
+    <row r="11" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="37"/>
       <c r="C11" s="33" t="s">
         <v>33</v>
@@ -2781,7 +2715,7 @@
       <c r="J11" s="113"/>
       <c r="K11" s="32"/>
     </row>
-    <row r="12" spans="2:11" ht="16" thickBot="1">
+    <row r="12" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="37"/>
       <c r="C12" s="33" t="s">
         <v>35</v>
@@ -2801,7 +2735,7 @@
       <c r="J12" s="113"/>
       <c r="K12" s="32"/>
     </row>
-    <row r="13" spans="2:11" ht="16" thickBot="1">
+    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="37"/>
       <c r="C13" s="33" t="s">
         <v>9</v>
@@ -2821,7 +2755,7 @@
       <c r="J13" s="113"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="2:11" ht="16" thickBot="1">
+    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="37"/>
       <c r="C14" s="33" t="s">
         <v>38</v>
@@ -2841,7 +2775,7 @@
       <c r="J14" s="113"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="2:11" ht="16" thickBot="1">
+    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="37"/>
       <c r="C15" s="33" t="s">
         <v>39</v>
@@ -2861,7 +2795,7 @@
       <c r="J15" s="113"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="2:11" ht="16" thickBot="1">
+    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="37"/>
       <c r="C16" s="33" t="s">
         <v>40</v>
@@ -2882,7 +2816,7 @@
       </c>
       <c r="J16" s="113"/>
     </row>
-    <row r="17" spans="2:10" ht="16" thickBot="1">
+    <row r="17" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="37"/>
       <c r="C17" s="33" t="s">
         <v>41</v>
@@ -2903,7 +2837,7 @@
       </c>
       <c r="J17" s="113"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="37"/>
       <c r="C18" s="87"/>
       <c r="D18" s="109"/>
@@ -2914,10 +2848,10 @@
       <c r="I18" s="32"/>
       <c r="J18" s="113"/>
     </row>
-    <row r="19" spans="2:10" ht="16" thickBot="1">
+    <row r="19" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="37"/>
       <c r="C19" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D19" s="109"/>
       <c r="E19" s="110"/>
@@ -2927,7 +2861,7 @@
       <c r="I19" s="32"/>
       <c r="J19" s="113"/>
     </row>
-    <row r="20" spans="2:10" ht="16" thickBot="1">
+    <row r="20" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="37"/>
       <c r="C20" s="33" t="s">
         <v>42</v>
@@ -2945,11 +2879,11 @@
       </c>
       <c r="H20" s="33"/>
       <c r="I20" s="149" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J20" s="113"/>
     </row>
-    <row r="21" spans="2:10" ht="16" thickBot="1">
+    <row r="21" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="37"/>
       <c r="C21" s="33" t="s">
         <v>43</v>
@@ -2970,7 +2904,7 @@
       </c>
       <c r="J21" s="113"/>
     </row>
-    <row r="22" spans="2:10" ht="16" thickBot="1">
+    <row r="22" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="37"/>
       <c r="C22" s="33" t="s">
         <v>11</v>
@@ -2991,7 +2925,7 @@
       </c>
       <c r="J22" s="113"/>
     </row>
-    <row r="23" spans="2:10" ht="16" thickBot="1">
+    <row r="23" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="37"/>
       <c r="C23" s="33" t="s">
         <v>44</v>
@@ -3012,7 +2946,7 @@
       </c>
       <c r="J23" s="113"/>
     </row>
-    <row r="24" spans="2:10" ht="16" thickBot="1">
+    <row r="24" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="37"/>
       <c r="C24" s="33" t="s">
         <v>45</v>
@@ -3033,7 +2967,7 @@
       </c>
       <c r="J24" s="113"/>
     </row>
-    <row r="25" spans="2:10" ht="16" thickBot="1">
+    <row r="25" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="37"/>
       <c r="C25" s="33" t="s">
         <v>46</v>
@@ -3054,7 +2988,7 @@
       </c>
       <c r="J25" s="113"/>
     </row>
-    <row r="26" spans="2:10" ht="16" thickBot="1">
+    <row r="26" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="37"/>
       <c r="C26" s="33" t="s">
         <v>47</v>
@@ -3075,7 +3009,7 @@
       </c>
       <c r="J26" s="113"/>
     </row>
-    <row r="27" spans="2:10" ht="16" thickBot="1">
+    <row r="27" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="37"/>
       <c r="C27" s="33" t="s">
         <v>50</v>
@@ -3096,7 +3030,7 @@
       </c>
       <c r="J27" s="113"/>
     </row>
-    <row r="28" spans="2:10" ht="16" thickBot="1">
+    <row r="28" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="37"/>
       <c r="C28" s="33" t="s">
         <v>37</v>
@@ -3115,7 +3049,7 @@
       </c>
       <c r="J28" s="113"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="37"/>
       <c r="C29" s="33"/>
       <c r="D29" s="19"/>
@@ -3126,7 +3060,7 @@
       <c r="I29" s="32"/>
       <c r="J29" s="113"/>
     </row>
-    <row r="30" spans="2:10" ht="16" thickBot="1">
+    <row r="30" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="37"/>
       <c r="C30" s="14" t="s">
         <v>7</v>
@@ -3139,7 +3073,7 @@
       <c r="I30" s="32"/>
       <c r="J30" s="113"/>
     </row>
-    <row r="31" spans="2:10" ht="16" thickBot="1">
+    <row r="31" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="37"/>
       <c r="C31" s="33" t="s">
         <v>36</v>
@@ -3160,7 +3094,7 @@
       </c>
       <c r="J31" s="113"/>
     </row>
-    <row r="32" spans="2:10" ht="16" thickBot="1">
+    <row r="32" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="37"/>
       <c r="C32" s="33" t="s">
         <v>48</v>
@@ -3181,7 +3115,7 @@
       </c>
       <c r="J32" s="113"/>
     </row>
-    <row r="33" spans="2:10" ht="16" thickBot="1">
+    <row r="33" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="37"/>
       <c r="C33" s="33" t="s">
         <v>49</v>
@@ -3199,11 +3133,11 @@
       </c>
       <c r="H33" s="33"/>
       <c r="I33" s="146" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J33" s="113"/>
     </row>
-    <row r="34" spans="2:10" ht="16" thickBot="1">
+    <row r="34" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="37"/>
       <c r="C34" s="33" t="s">
         <v>34</v>
@@ -3222,7 +3156,7 @@
       </c>
       <c r="J34" s="113"/>
     </row>
-    <row r="35" spans="2:10" ht="16" thickBot="1">
+    <row r="35" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="37"/>
       <c r="C35" s="45" t="s">
         <v>60</v>
@@ -3239,7 +3173,7 @@
       </c>
       <c r="J35" s="113"/>
     </row>
-    <row r="36" spans="2:10" ht="16" thickBot="1">
+    <row r="36" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="37"/>
       <c r="C36" s="45" t="s">
         <v>61</v>
@@ -3256,7 +3190,7 @@
       </c>
       <c r="J36" s="113"/>
     </row>
-    <row r="37" spans="2:10" ht="16" thickBot="1">
+    <row r="37" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="37"/>
       <c r="C37" s="45" t="s">
         <v>63</v>
@@ -3273,7 +3207,7 @@
       </c>
       <c r="J37" s="113"/>
     </row>
-    <row r="38" spans="2:10" ht="16" thickBot="1">
+    <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="37"/>
       <c r="C38" s="45" t="s">
         <v>64</v>
@@ -3290,7 +3224,7 @@
       </c>
       <c r="J38" s="113"/>
     </row>
-    <row r="39" spans="2:10" ht="16" thickBot="1">
+    <row r="39" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="37"/>
       <c r="C39" s="45" t="s">
         <v>62</v>
@@ -3307,7 +3241,7 @@
       </c>
       <c r="J39" s="113"/>
     </row>
-    <row r="40" spans="2:10" ht="20" customHeight="1" thickBot="1">
+    <row r="40" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="38"/>
       <c r="C40" s="39"/>
       <c r="D40" s="39"/>
@@ -3324,43 +3258,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>165100</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>3949700</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3375,30 +3272,29 @@
       <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="71" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="71" customWidth="1"/>
-    <col min="3" max="3" width="35.875" style="71" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="71" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="71" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="71" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="71" customWidth="1"/>
-    <col min="8" max="8" width="4.75" style="71" customWidth="1"/>
-    <col min="9" max="9" width="8.375" style="72" customWidth="1"/>
-    <col min="10" max="10" width="2.875" style="72" customWidth="1"/>
-    <col min="11" max="11" width="7.625" style="72" customWidth="1"/>
-    <col min="12" max="12" width="2.75" style="72" customWidth="1"/>
-    <col min="13" max="13" width="9.375" style="72" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="71" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="71" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="71" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="71" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="71" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="71" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="71" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" style="72" customWidth="1"/>
+    <col min="10" max="10" width="2.85546875" style="72" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" style="72" customWidth="1"/>
+    <col min="12" max="12" width="2.7109375" style="72" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" style="72" customWidth="1"/>
     <col min="14" max="14" width="3" style="72" customWidth="1"/>
-    <col min="15" max="15" width="7.125" style="72" customWidth="1"/>
-    <col min="16" max="16" width="2.625" style="72" customWidth="1"/>
-    <col min="17" max="17" width="68.625" style="71" customWidth="1"/>
-    <col min="18" max="16384" width="10.625" style="71"/>
+    <col min="15" max="15" width="7.140625" style="72" customWidth="1"/>
+    <col min="16" max="16" width="2.5703125" style="72" customWidth="1"/>
+    <col min="17" max="17" width="68.5703125" style="71" customWidth="1"/>
+    <col min="18" max="16384" width="10.7109375" style="71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="16" thickBot="1"/>
-    <row r="2" spans="2:17">
+    <row r="1" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B2" s="73"/>
       <c r="C2" s="74"/>
       <c r="D2" s="74"/>
@@ -3416,10 +3312,10 @@
       <c r="P2" s="75"/>
       <c r="Q2" s="74"/>
     </row>
-    <row r="3" spans="2:17" s="21" customFormat="1">
+    <row r="3" spans="2:17" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="20"/>
       <c r="C3" s="117" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -3431,26 +3327,26 @@
       </c>
       <c r="H3" s="117"/>
       <c r="I3" s="67" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J3" s="66"/>
       <c r="K3" s="67" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L3" s="66"/>
       <c r="M3" s="66" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N3" s="66"/>
       <c r="O3" s="66" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P3" s="66"/>
       <c r="Q3" s="117" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B4" s="76"/>
       <c r="C4" s="77"/>
       <c r="D4" s="77"/>
@@ -3468,10 +3364,10 @@
       <c r="P4" s="116"/>
       <c r="Q4" s="139"/>
     </row>
-    <row r="5" spans="2:17" ht="16" thickBot="1">
+    <row r="5" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="76"/>
       <c r="C5" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="29"/>
@@ -3488,10 +3384,10 @@
       <c r="P5" s="10"/>
       <c r="Q5" s="70"/>
     </row>
-    <row r="6" spans="2:17" ht="16" thickBot="1">
+    <row r="6" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="76"/>
       <c r="C6" s="142" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D6" s="79"/>
       <c r="E6" s="79"/>
@@ -3513,10 +3409,10 @@
       <c r="P6" s="78"/>
       <c r="Q6" s="70"/>
     </row>
-    <row r="7" spans="2:17" ht="16" thickBot="1">
+    <row r="7" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="76"/>
       <c r="C7" s="138" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D7" s="79"/>
       <c r="E7" s="79"/>
@@ -3544,7 +3440,7 @@
       <c r="P7" s="78"/>
       <c r="Q7" s="90"/>
     </row>
-    <row r="8" spans="2:17">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B8" s="76"/>
       <c r="C8" s="86"/>
       <c r="D8" s="86"/>
@@ -3562,7 +3458,7 @@
       <c r="P8" s="84"/>
       <c r="Q8" s="118"/>
     </row>
-    <row r="9" spans="2:17" ht="16" thickBot="1">
+    <row r="9" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="76"/>
       <c r="C9" s="29" t="s">
         <v>7</v>
@@ -3582,7 +3478,7 @@
       <c r="P9" s="12"/>
       <c r="Q9" s="30"/>
     </row>
-    <row r="10" spans="2:17" ht="16" thickBot="1">
+    <row r="10" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="76"/>
       <c r="C10" s="88" t="s">
         <v>5</v>
@@ -3610,7 +3506,7 @@
       <c r="P10" s="85"/>
       <c r="Q10" s="123"/>
     </row>
-    <row r="11" spans="2:17">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B11" s="76"/>
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
@@ -3628,10 +3524,10 @@
       <c r="P11" s="85"/>
       <c r="Q11" s="70"/>
     </row>
-    <row r="12" spans="2:17" ht="16" thickBot="1">
+    <row r="12" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="76"/>
       <c r="C12" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -3647,13 +3543,13 @@
       <c r="O12" s="12"/>
       <c r="P12" s="12"/>
       <c r="Q12" s="143" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" ht="16" thickBot="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="76"/>
       <c r="C13" s="114" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -3677,13 +3573,13 @@
       <c r="O13" s="84"/>
       <c r="P13" s="84"/>
       <c r="Q13" s="30" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" ht="16" thickBot="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="76"/>
       <c r="C14" s="122" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
@@ -3711,11 +3607,6 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3730,22 +3621,22 @@
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="46" customWidth="1"/>
-    <col min="2" max="2" width="3.375" style="46" customWidth="1"/>
-    <col min="3" max="3" width="21.875" style="46" customWidth="1"/>
-    <col min="4" max="4" width="3.125" style="46" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="46" customWidth="1"/>
-    <col min="6" max="6" width="10.25" style="46" customWidth="1"/>
-    <col min="7" max="9" width="12.125" style="46" customWidth="1"/>
-    <col min="10" max="10" width="14.375" style="47" customWidth="1"/>
-    <col min="11" max="11" width="55.5" style="46" customWidth="1"/>
-    <col min="12" max="16384" width="33.125" style="46"/>
+    <col min="1" max="1" width="3.28515625" style="46" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="46" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" style="46" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="46" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="46" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="46" customWidth="1"/>
+    <col min="7" max="9" width="12.140625" style="46" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="47" customWidth="1"/>
+    <col min="11" max="11" width="55.42578125" style="46" customWidth="1"/>
+    <col min="12" max="16384" width="33.140625" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="16" thickBot="1"/>
-    <row r="2" spans="2:11">
+    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="48"/>
       <c r="C2" s="49"/>
       <c r="D2" s="49"/>
@@ -3757,7 +3648,7 @@
       <c r="J2" s="50"/>
       <c r="K2" s="49"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="51"/>
       <c r="C3" s="52" t="s">
         <v>21</v>
@@ -3771,7 +3662,7 @@
       <c r="J3" s="53"/>
       <c r="K3" s="54"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="51"/>
       <c r="C4" s="54"/>
       <c r="D4" s="54"/>
@@ -3783,7 +3674,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="56"/>
       <c r="C5" s="57" t="s">
         <v>29</v>
@@ -3799,19 +3690,19 @@
         <v>30</v>
       </c>
       <c r="H5" s="57" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I5" s="57" t="s">
         <v>59</v>
       </c>
       <c r="J5" s="58" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K5" s="57" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="51"/>
       <c r="C6" s="52"/>
       <c r="D6" s="52"/>
@@ -3823,30 +3714,30 @@
       <c r="J6" s="53"/>
       <c r="K6" s="52"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="51"/>
       <c r="C7" s="65"/>
       <c r="D7" s="59"/>
       <c r="E7" s="54" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F7" s="54" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G7" s="55"/>
       <c r="H7" s="55"/>
       <c r="I7" s="55" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J7" s="55"/>
       <c r="K7" s="68" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="51"/>
       <c r="C8" s="60" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D8" s="60"/>
       <c r="E8" s="54"/>
@@ -3857,7 +3748,7 @@
       <c r="J8" s="55"/>
       <c r="K8" s="69"/>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="51"/>
       <c r="C9" s="59"/>
       <c r="D9" s="60"/>
@@ -3869,30 +3760,30 @@
       <c r="J9" s="55"/>
       <c r="K9" s="69"/>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="51"/>
       <c r="C10" s="59"/>
       <c r="D10" s="64"/>
       <c r="E10" s="59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F10" s="61" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G10" s="62"/>
       <c r="H10" s="62"/>
       <c r="I10" s="62" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J10" s="62"/>
       <c r="K10" s="59" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="51"/>
       <c r="C11" s="60" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D11" s="64"/>
       <c r="E11" s="59"/>
@@ -3903,7 +3794,7 @@
       <c r="J11" s="62"/>
       <c r="K11" s="59"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="51"/>
       <c r="C12" s="59"/>
       <c r="D12" s="64"/>
@@ -3915,27 +3806,27 @@
       <c r="J12" s="62"/>
       <c r="K12" s="59"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="51"/>
       <c r="C13" s="64"/>
       <c r="D13" s="64"/>
       <c r="E13" s="59" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F13" s="61" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G13" s="62"/>
       <c r="H13" s="62"/>
       <c r="I13" s="62" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J13" s="62"/>
       <c r="K13" s="59" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" s="51"/>
       <c r="C14" s="64" t="s">
         <v>5</v>
@@ -3949,7 +3840,7 @@
       <c r="J14" s="62"/>
       <c r="K14" s="59"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="51"/>
       <c r="C15" s="59"/>
       <c r="D15" s="64"/>
@@ -3961,30 +3852,30 @@
       <c r="J15" s="62"/>
       <c r="K15" s="59"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="51"/>
       <c r="C16" s="64"/>
       <c r="D16" s="64"/>
       <c r="E16" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="61" t="s">
         <v>102</v>
-      </c>
-      <c r="F16" s="61" t="s">
-        <v>103</v>
       </c>
       <c r="G16" s="62"/>
       <c r="H16" s="62"/>
       <c r="I16" s="62" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J16" s="62"/>
       <c r="K16" s="63" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="51"/>
       <c r="C17" s="145" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D17" s="64"/>
       <c r="F17" s="61"/>
@@ -3997,11 +3888,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4016,19 +3902,19 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="127" customWidth="1"/>
-    <col min="2" max="2" width="4.125" style="127" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="127"/>
+    <col min="1" max="1" width="3.5703125" style="127" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" style="127" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="127"/>
     <col min="4" max="4" width="10" style="127" customWidth="1"/>
-    <col min="5" max="10" width="10.625" style="127"/>
+    <col min="5" max="10" width="10.7109375" style="127"/>
     <col min="11" max="11" width="20" style="127" customWidth="1"/>
-    <col min="12" max="16384" width="10.625" style="127"/>
+    <col min="12" max="16384" width="10.7109375" style="127"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="16" thickBot="1"/>
-    <row r="3" spans="2:11">
+    <row r="2" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="128"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -4040,13 +3926,13 @@
       <c r="J3" s="16"/>
       <c r="K3" s="129"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="106"/>
       <c r="C4" s="15" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
@@ -4056,7 +3942,7 @@
       <c r="J4" s="15"/>
       <c r="K4" s="131"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="132"/>
       <c r="C5" s="130"/>
       <c r="D5" s="130"/>
@@ -4068,10 +3954,10 @@
       <c r="J5" s="130"/>
       <c r="K5" s="133"/>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="132"/>
       <c r="C6" s="154" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D6" s="130"/>
       <c r="E6" s="130"/>
@@ -4082,10 +3968,10 @@
       <c r="J6" s="130"/>
       <c r="K6" s="133"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="132"/>
       <c r="C7" s="144" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D7" s="130"/>
       <c r="E7" s="130"/>
@@ -4096,7 +3982,7 @@
       <c r="J7" s="130"/>
       <c r="K7" s="133"/>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="132"/>
       <c r="C8" s="130"/>
       <c r="D8" s="130"/>
@@ -4108,7 +3994,7 @@
       <c r="J8" s="130"/>
       <c r="K8" s="133"/>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="132"/>
       <c r="C9" s="130"/>
       <c r="D9" s="130"/>
@@ -4120,7 +4006,7 @@
       <c r="J9" s="130"/>
       <c r="K9" s="133"/>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="132"/>
       <c r="C10" s="130"/>
       <c r="D10" s="130"/>
@@ -4132,7 +4018,7 @@
       <c r="J10" s="130"/>
       <c r="K10" s="133"/>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="132"/>
       <c r="C11" s="130"/>
       <c r="D11" s="130"/>
@@ -4140,7 +4026,7 @@
         <v>543.86</v>
       </c>
       <c r="F11" s="154" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G11" s="130"/>
       <c r="H11" s="130"/>
@@ -4148,7 +4034,7 @@
       <c r="J11" s="130"/>
       <c r="K11" s="133"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="132"/>
       <c r="C12" s="130"/>
       <c r="D12" s="130"/>
@@ -4160,7 +4046,7 @@
       <c r="J12" s="130"/>
       <c r="K12" s="133"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="132"/>
       <c r="C13" s="130"/>
       <c r="D13" s="130"/>
@@ -4172,7 +4058,7 @@
       <c r="J13" s="130"/>
       <c r="K13" s="133"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" s="132"/>
       <c r="C14" s="130"/>
       <c r="D14" s="130"/>
@@ -4184,7 +4070,7 @@
       <c r="J14" s="130"/>
       <c r="K14" s="133"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="132"/>
       <c r="C15" s="130"/>
       <c r="D15" s="130"/>
@@ -4196,7 +4082,7 @@
       <c r="J15" s="130"/>
       <c r="K15" s="133"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="132"/>
       <c r="C16" s="130"/>
       <c r="D16" s="130"/>
@@ -4208,7 +4094,7 @@
       <c r="J16" s="130"/>
       <c r="K16" s="133"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="132"/>
       <c r="C17" s="130"/>
       <c r="D17" s="130"/>
@@ -4220,7 +4106,7 @@
       <c r="J17" s="130"/>
       <c r="K17" s="133"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="132"/>
       <c r="C18" s="130"/>
       <c r="D18" s="109"/>
@@ -4232,7 +4118,7 @@
       <c r="J18" s="130"/>
       <c r="K18" s="133"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="132"/>
       <c r="C19" s="130"/>
       <c r="D19" s="130"/>
@@ -4244,7 +4130,7 @@
       <c r="J19" s="130"/>
       <c r="K19" s="133"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="132"/>
       <c r="C20" s="130"/>
       <c r="D20" s="130"/>
@@ -4256,7 +4142,7 @@
       <c r="J20" s="130"/>
       <c r="K20" s="133"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="132"/>
       <c r="C21" s="130"/>
       <c r="D21" s="130"/>
@@ -4268,7 +4154,7 @@
       <c r="J21" s="130"/>
       <c r="K21" s="133"/>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="132"/>
       <c r="C22" s="130"/>
       <c r="D22" s="130"/>
@@ -4280,7 +4166,7 @@
       <c r="J22" s="130"/>
       <c r="K22" s="133"/>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" s="132"/>
       <c r="C23" s="130"/>
       <c r="D23" s="130"/>
@@ -4292,7 +4178,7 @@
       <c r="J23" s="130"/>
       <c r="K23" s="133"/>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" s="132"/>
       <c r="C24" s="130"/>
       <c r="D24" s="130"/>
@@ -4304,7 +4190,7 @@
       <c r="J24" s="130"/>
       <c r="K24" s="133"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="132"/>
       <c r="C25" s="130"/>
       <c r="D25" s="130"/>
@@ -4316,10 +4202,10 @@
       <c r="J25" s="130"/>
       <c r="K25" s="133"/>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" s="132"/>
       <c r="C26" s="154" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D26" s="130"/>
       <c r="E26" s="130"/>
@@ -4330,17 +4216,17 @@
       <c r="J26" s="130"/>
       <c r="K26" s="133"/>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" s="132"/>
       <c r="C27" s="154" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D27" s="130"/>
       <c r="E27" s="130">
         <v>15</v>
       </c>
       <c r="F27" s="154" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G27" s="130"/>
       <c r="H27" s="130"/>
@@ -4348,7 +4234,7 @@
       <c r="J27" s="130"/>
       <c r="K27" s="133"/>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" s="132"/>
       <c r="C28" s="130"/>
       <c r="D28" s="130"/>
@@ -4360,7 +4246,7 @@
       <c r="J28" s="130"/>
       <c r="K28" s="133"/>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29" s="132"/>
       <c r="C29" s="130"/>
       <c r="D29" s="130"/>
@@ -4372,7 +4258,7 @@
       <c r="J29" s="130"/>
       <c r="K29" s="133"/>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B30" s="132"/>
       <c r="C30" s="130"/>
       <c r="D30" s="130"/>
@@ -4384,7 +4270,7 @@
       <c r="J30" s="130"/>
       <c r="K30" s="133"/>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31" s="132"/>
       <c r="C31" s="130"/>
       <c r="D31" s="130"/>
@@ -4396,10 +4282,10 @@
       <c r="J31" s="130"/>
       <c r="K31" s="133"/>
     </row>
-    <row r="32" spans="2:11">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B32" s="132"/>
       <c r="C32" s="154" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D32" s="130"/>
       <c r="E32" s="130"/>
@@ -4410,7 +4296,7 @@
       <c r="J32" s="130"/>
       <c r="K32" s="133"/>
     </row>
-    <row r="33" spans="2:11">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B33" s="132"/>
       <c r="C33" s="130"/>
       <c r="D33" s="130"/>
@@ -4422,7 +4308,7 @@
       <c r="J33" s="130"/>
       <c r="K33" s="133"/>
     </row>
-    <row r="34" spans="2:11">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B34" s="132"/>
       <c r="C34" s="130"/>
       <c r="D34" s="130"/>
@@ -4434,7 +4320,7 @@
       <c r="J34" s="130"/>
       <c r="K34" s="133"/>
     </row>
-    <row r="35" spans="2:11">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35" s="132"/>
       <c r="C35" s="130"/>
       <c r="D35" s="130"/>
@@ -4446,7 +4332,7 @@
       <c r="J35" s="130"/>
       <c r="K35" s="133"/>
     </row>
-    <row r="36" spans="2:11">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B36" s="132"/>
       <c r="C36" s="130"/>
       <c r="D36" s="130"/>
@@ -4458,7 +4344,7 @@
       <c r="J36" s="130"/>
       <c r="K36" s="133"/>
     </row>
-    <row r="37" spans="2:11">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37" s="132"/>
       <c r="C37" s="130"/>
       <c r="D37" s="130"/>
@@ -4470,7 +4356,7 @@
       <c r="J37" s="130"/>
       <c r="K37" s="133"/>
     </row>
-    <row r="38" spans="2:11">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38" s="132"/>
       <c r="C38" s="130"/>
       <c r="D38" s="130"/>
@@ -4482,7 +4368,7 @@
       <c r="J38" s="130"/>
       <c r="K38" s="133"/>
     </row>
-    <row r="39" spans="2:11">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39" s="132"/>
       <c r="C39" s="130"/>
       <c r="D39" s="130"/>
@@ -4494,7 +4380,7 @@
       <c r="J39" s="130"/>
       <c r="K39" s="133"/>
     </row>
-    <row r="40" spans="2:11">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B40" s="132"/>
       <c r="C40" s="130"/>
       <c r="D40" s="130"/>
@@ -4506,7 +4392,7 @@
       <c r="J40" s="130"/>
       <c r="K40" s="133"/>
     </row>
-    <row r="41" spans="2:11">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B41" s="132"/>
       <c r="C41" s="130"/>
       <c r="D41" s="130"/>
@@ -4518,7 +4404,7 @@
       <c r="J41" s="130"/>
       <c r="K41" s="133"/>
     </row>
-    <row r="42" spans="2:11">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B42" s="132"/>
       <c r="C42" s="130"/>
       <c r="D42" s="130"/>
@@ -4532,7 +4418,7 @@
       <c r="J42" s="130"/>
       <c r="K42" s="133"/>
     </row>
-    <row r="43" spans="2:11">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B43" s="132"/>
       <c r="C43" s="130"/>
       <c r="D43" s="130"/>
@@ -4544,7 +4430,7 @@
       <c r="J43" s="130"/>
       <c r="K43" s="133"/>
     </row>
-    <row r="44" spans="2:11">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B44" s="132"/>
       <c r="C44" s="130"/>
       <c r="D44" s="130"/>
@@ -4556,7 +4442,7 @@
       <c r="J44" s="130"/>
       <c r="K44" s="133"/>
     </row>
-    <row r="45" spans="2:11">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B45" s="132"/>
       <c r="C45" s="130"/>
       <c r="D45" s="130"/>
@@ -4568,7 +4454,7 @@
       <c r="J45" s="130"/>
       <c r="K45" s="133"/>
     </row>
-    <row r="46" spans="2:11">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B46" s="132"/>
       <c r="C46" s="130"/>
       <c r="D46" s="130"/>
@@ -4580,7 +4466,7 @@
       <c r="J46" s="130"/>
       <c r="K46" s="133"/>
     </row>
-    <row r="47" spans="2:11">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B47" s="132"/>
       <c r="C47" s="130"/>
       <c r="D47" s="130"/>
@@ -4592,7 +4478,7 @@
       <c r="J47" s="130"/>
       <c r="K47" s="133"/>
     </row>
-    <row r="48" spans="2:11">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B48" s="132"/>
       <c r="C48" s="130"/>
       <c r="D48" s="130"/>
@@ -4604,7 +4490,7 @@
       <c r="J48" s="130"/>
       <c r="K48" s="133"/>
     </row>
-    <row r="49" spans="2:11">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B49" s="132"/>
       <c r="C49" s="130"/>
       <c r="D49" s="130"/>
@@ -4616,7 +4502,7 @@
       <c r="J49" s="130"/>
       <c r="K49" s="133"/>
     </row>
-    <row r="50" spans="2:11">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B50" s="132"/>
       <c r="C50" s="130"/>
       <c r="D50" s="130"/>
@@ -4628,7 +4514,7 @@
       <c r="J50" s="130"/>
       <c r="K50" s="133"/>
     </row>
-    <row r="51" spans="2:11">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B51" s="132"/>
       <c r="C51" s="130"/>
       <c r="D51" s="130"/>
@@ -4640,7 +4526,7 @@
       <c r="J51" s="130"/>
       <c r="K51" s="133"/>
     </row>
-    <row r="52" spans="2:11">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B52" s="132"/>
       <c r="C52" s="130"/>
       <c r="D52" s="130"/>
@@ -4652,7 +4538,7 @@
       <c r="J52" s="130"/>
       <c r="K52" s="133"/>
     </row>
-    <row r="53" spans="2:11">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B53" s="132"/>
       <c r="C53" s="130"/>
       <c r="D53" s="130"/>
@@ -4664,7 +4550,7 @@
       <c r="J53" s="130"/>
       <c r="K53" s="133"/>
     </row>
-    <row r="54" spans="2:11">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B54" s="132"/>
       <c r="C54" s="130"/>
       <c r="D54" s="130"/>
@@ -4676,7 +4562,7 @@
       <c r="J54" s="130"/>
       <c r="K54" s="133"/>
     </row>
-    <row r="55" spans="2:11">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B55" s="132"/>
       <c r="C55" s="130"/>
       <c r="D55" s="130"/>
@@ -4688,7 +4574,7 @@
       <c r="J55" s="130"/>
       <c r="K55" s="133"/>
     </row>
-    <row r="56" spans="2:11">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B56" s="132"/>
       <c r="C56" s="130"/>
       <c r="D56" s="130"/>
@@ -4700,7 +4586,7 @@
       <c r="J56" s="130"/>
       <c r="K56" s="133"/>
     </row>
-    <row r="57" spans="2:11">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B57" s="132"/>
       <c r="C57" s="130"/>
       <c r="D57" s="130"/>
@@ -4712,7 +4598,7 @@
       <c r="J57" s="130"/>
       <c r="K57" s="133"/>
     </row>
-    <row r="58" spans="2:11">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B58" s="132"/>
       <c r="C58" s="130"/>
       <c r="D58" s="130"/>
@@ -4724,7 +4610,7 @@
       <c r="J58" s="130"/>
       <c r="K58" s="133"/>
     </row>
-    <row r="59" spans="2:11">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B59" s="132"/>
       <c r="C59" s="130"/>
       <c r="D59" s="130"/>
@@ -4736,7 +4622,7 @@
       <c r="J59" s="130"/>
       <c r="K59" s="133"/>
     </row>
-    <row r="60" spans="2:11">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B60" s="132"/>
       <c r="C60" s="130"/>
       <c r="D60" s="130"/>
@@ -4748,7 +4634,7 @@
       <c r="J60" s="130"/>
       <c r="K60" s="133"/>
     </row>
-    <row r="61" spans="2:11">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B61" s="132"/>
       <c r="C61" s="130"/>
       <c r="D61" s="130"/>
@@ -4760,7 +4646,7 @@
       <c r="J61" s="130"/>
       <c r="K61" s="133"/>
     </row>
-    <row r="62" spans="2:11">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B62" s="132"/>
       <c r="C62" s="130"/>
       <c r="D62" s="130"/>
@@ -4772,10 +4658,10 @@
       <c r="J62" s="130"/>
       <c r="K62" s="133"/>
     </row>
-    <row r="63" spans="2:11">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B63" s="132"/>
       <c r="C63" s="154" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D63" s="130"/>
       <c r="E63" s="130"/>
@@ -4786,7 +4672,7 @@
       <c r="J63" s="130"/>
       <c r="K63" s="133"/>
     </row>
-    <row r="64" spans="2:11">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B64" s="132"/>
       <c r="C64" s="130"/>
       <c r="D64" s="130"/>
@@ -4798,7 +4684,7 @@
       <c r="J64" s="130"/>
       <c r="K64" s="133"/>
     </row>
-    <row r="65" spans="2:11">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B65" s="132"/>
       <c r="C65" s="130"/>
       <c r="D65" s="130"/>
@@ -4810,7 +4696,7 @@
       <c r="J65" s="130"/>
       <c r="K65" s="133"/>
     </row>
-    <row r="66" spans="2:11">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B66" s="132"/>
       <c r="C66" s="130"/>
       <c r="D66" s="130"/>
@@ -4822,7 +4708,7 @@
       <c r="J66" s="130"/>
       <c r="K66" s="133"/>
     </row>
-    <row r="67" spans="2:11">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B67" s="132"/>
       <c r="C67" s="130"/>
       <c r="D67" s="130"/>
@@ -4834,7 +4720,7 @@
       <c r="J67" s="130"/>
       <c r="K67" s="133"/>
     </row>
-    <row r="68" spans="2:11">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B68" s="132"/>
       <c r="C68" s="130"/>
       <c r="D68" s="130"/>
@@ -4848,7 +4734,7 @@
       <c r="J68" s="130"/>
       <c r="K68" s="133"/>
     </row>
-    <row r="69" spans="2:11">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B69" s="132"/>
       <c r="C69" s="130"/>
       <c r="D69" s="130"/>
@@ -4860,7 +4746,7 @@
       <c r="J69" s="130"/>
       <c r="K69" s="133"/>
     </row>
-    <row r="70" spans="2:11">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B70" s="132"/>
       <c r="C70" s="130"/>
       <c r="D70" s="130"/>
@@ -4872,7 +4758,7 @@
       <c r="J70" s="130"/>
       <c r="K70" s="133"/>
     </row>
-    <row r="71" spans="2:11">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B71" s="132"/>
       <c r="C71" s="130"/>
       <c r="D71" s="130"/>
@@ -4884,7 +4770,7 @@
       <c r="J71" s="130"/>
       <c r="K71" s="133"/>
     </row>
-    <row r="72" spans="2:11">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B72" s="132"/>
       <c r="C72" s="130"/>
       <c r="D72" s="130"/>
@@ -4896,7 +4782,7 @@
       <c r="J72" s="130"/>
       <c r="K72" s="133"/>
     </row>
-    <row r="73" spans="2:11">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B73" s="132"/>
       <c r="C73" s="130"/>
       <c r="D73" s="130"/>
@@ -4908,7 +4794,7 @@
       <c r="J73" s="130"/>
       <c r="K73" s="133"/>
     </row>
-    <row r="74" spans="2:11">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B74" s="132"/>
       <c r="C74" s="130"/>
       <c r="D74" s="130"/>
@@ -4924,10 +4810,5 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/nodes_source_analyses/households/households_water_heater_network_gas.converter.xlsx
+++ b/nodes_source_analyses/households/households_water_heater_network_gas.converter.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/households/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/households/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B427646C-5149-FB4D-88DD-EC9F35BE2858}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="460" windowWidth="25040" windowHeight="15500" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="25040" windowHeight="15500" tabRatio="762" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -36,10 +37,16 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -49,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="119">
   <si>
     <t>Source</t>
   </si>
@@ -451,17 +458,20 @@
     <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
 </t>
   </si>
+  <si>
+    <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * #,##0.00\-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -620,6 +630,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -627,6 +638,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -634,6 +646,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -641,6 +654,7 @@
       <sz val="16"/>
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -648,6 +662,7 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -655,17 +670,20 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -679,7 +697,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1247,7 +1272,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1524,6 +1549,7 @@
     <xf numFmtId="0" fontId="30" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="254">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1787,6 +1813,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1808,7 +1837,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1846,7 +1881,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1883,7 +1924,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1921,7 +1968,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2380,13 +2433,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="26" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="18" customWidth="1"/>
@@ -2394,24 +2447,24 @@
     <col min="4" max="16384" width="10.7109375" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="24" customFormat="1">
       <c r="A1" s="22"/>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="21">
       <c r="A2" s="1"/>
       <c r="B2" s="25" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="25"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>17</v>
@@ -2420,7 +2473,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>66</v>
@@ -2429,7 +2482,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>19</v>
@@ -2438,29 +2491,29 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="91" t="s">
         <v>67</v>
       </c>
       <c r="C9" s="92"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" s="93"/>
       <c r="C10" s="94"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" s="93" t="s">
         <v>68</v>
@@ -2469,33 +2522,33 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="17" thickBot="1">
       <c r="A12" s="1"/>
       <c r="B12" s="93"/>
       <c r="C12" s="14" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="17" thickBot="1">
       <c r="A13" s="1"/>
       <c r="B13" s="93"/>
       <c r="C13" s="96" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="93"/>
       <c r="C14" s="94" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" s="93"/>
       <c r="C15" s="94"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="1"/>
       <c r="B16" s="93" t="s">
         <v>73</v>
@@ -2504,49 +2557,49 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="93"/>
       <c r="C17" s="98" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" s="93"/>
       <c r="C18" s="99" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="1"/>
       <c r="B19" s="93"/>
       <c r="C19" s="100" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" s="101"/>
       <c r="C20" s="102" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="1"/>
       <c r="B21" s="101"/>
       <c r="C21" s="103" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="101"/>
       <c r="C22" s="104" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="B23" s="101"/>
       <c r="C23" s="105" t="s">
         <v>81</v>
@@ -2559,17 +2612,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A5"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="34" customWidth="1"/>
     <col min="2" max="2" width="3.7109375" style="34" customWidth="1"/>
@@ -2584,13 +2637,13 @@
     <col min="11" max="16384" width="10.7109375" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11">
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
       <c r="F1" s="32"/>
       <c r="G1" s="32"/>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11">
       <c r="B2" s="155" t="s">
         <v>117</v>
       </c>
@@ -2600,7 +2653,7 @@
       <c r="F2" s="32"/>
       <c r="G2" s="32"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11">
       <c r="B3" s="158"/>
       <c r="C3" s="159"/>
       <c r="D3" s="159"/>
@@ -2608,7 +2661,7 @@
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
     </row>
-    <row r="4" spans="2:11" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11" ht="37" customHeight="1">
       <c r="B4" s="161"/>
       <c r="C4" s="162"/>
       <c r="D4" s="162"/>
@@ -2616,10 +2669,10 @@
       <c r="F4" s="32"/>
       <c r="G4" s="32"/>
     </row>
-    <row r="5" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" ht="17" thickBot="1">
       <c r="D5" s="32"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11">
       <c r="B6" s="35"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -2630,7 +2683,7 @@
       <c r="I6" s="16"/>
       <c r="J6" s="36"/>
     </row>
-    <row r="7" spans="2:11" s="41" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" s="41" customFormat="1" ht="19">
       <c r="B7" s="106"/>
       <c r="C7" s="15" t="s">
         <v>31</v>
@@ -2651,7 +2704,7 @@
       </c>
       <c r="J7" s="112"/>
     </row>
-    <row r="8" spans="2:11" s="41" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" s="41" customFormat="1" ht="19" customHeight="1">
       <c r="B8" s="20"/>
       <c r="C8" s="14"/>
       <c r="D8" s="28"/>
@@ -2662,7 +2715,7 @@
       <c r="I8" s="14"/>
       <c r="J8" s="42"/>
     </row>
-    <row r="9" spans="2:11" s="41" customFormat="1" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" s="41" customFormat="1" ht="19" customHeight="1" thickBot="1">
       <c r="B9" s="20"/>
       <c r="C9" s="14" t="s">
         <v>109</v>
@@ -2675,7 +2728,7 @@
       <c r="I9" s="14"/>
       <c r="J9" s="42"/>
     </row>
-    <row r="10" spans="2:11" s="41" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" s="41" customFormat="1" ht="16" customHeight="1" thickBot="1">
       <c r="B10" s="20"/>
       <c r="C10" s="135" t="s">
         <v>92</v>
@@ -2695,7 +2748,7 @@
       </c>
       <c r="J10" s="42"/>
     </row>
-    <row r="11" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" ht="17" thickBot="1">
       <c r="B11" s="37"/>
       <c r="C11" s="33" t="s">
         <v>33</v>
@@ -2715,7 +2768,7 @@
       <c r="J11" s="113"/>
       <c r="K11" s="32"/>
     </row>
-    <row r="12" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" ht="17" thickBot="1">
       <c r="B12" s="37"/>
       <c r="C12" s="33" t="s">
         <v>35</v>
@@ -2735,7 +2788,7 @@
       <c r="J12" s="113"/>
       <c r="K12" s="32"/>
     </row>
-    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" ht="17" thickBot="1">
       <c r="B13" s="37"/>
       <c r="C13" s="33" t="s">
         <v>9</v>
@@ -2755,7 +2808,7 @@
       <c r="J13" s="113"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="17" thickBot="1">
       <c r="B14" s="37"/>
       <c r="C14" s="33" t="s">
         <v>38</v>
@@ -2775,7 +2828,7 @@
       <c r="J14" s="113"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" ht="17" thickBot="1">
       <c r="B15" s="37"/>
       <c r="C15" s="33" t="s">
         <v>39</v>
@@ -2795,7 +2848,7 @@
       <c r="J15" s="113"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" ht="17" thickBot="1">
       <c r="B16" s="37"/>
       <c r="C16" s="33" t="s">
         <v>40</v>
@@ -2816,7 +2869,7 @@
       </c>
       <c r="J16" s="113"/>
     </row>
-    <row r="17" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" ht="17" thickBot="1">
       <c r="B17" s="37"/>
       <c r="C17" s="33" t="s">
         <v>41</v>
@@ -2837,7 +2890,7 @@
       </c>
       <c r="J17" s="113"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10">
       <c r="B18" s="37"/>
       <c r="C18" s="87"/>
       <c r="D18" s="109"/>
@@ -2848,7 +2901,7 @@
       <c r="I18" s="32"/>
       <c r="J18" s="113"/>
     </row>
-    <row r="19" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" ht="17" thickBot="1">
       <c r="B19" s="37"/>
       <c r="C19" s="14" t="s">
         <v>82</v>
@@ -2861,7 +2914,7 @@
       <c r="I19" s="32"/>
       <c r="J19" s="113"/>
     </row>
-    <row r="20" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" ht="17" thickBot="1">
       <c r="B20" s="37"/>
       <c r="C20" s="33" t="s">
         <v>42</v>
@@ -2883,7 +2936,7 @@
       </c>
       <c r="J20" s="113"/>
     </row>
-    <row r="21" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" ht="17" thickBot="1">
       <c r="B21" s="37"/>
       <c r="C21" s="33" t="s">
         <v>43</v>
@@ -2904,7 +2957,7 @@
       </c>
       <c r="J21" s="113"/>
     </row>
-    <row r="22" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" ht="17" thickBot="1">
       <c r="B22" s="37"/>
       <c r="C22" s="33" t="s">
         <v>11</v>
@@ -2925,7 +2978,7 @@
       </c>
       <c r="J22" s="113"/>
     </row>
-    <row r="23" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" ht="17" thickBot="1">
       <c r="B23" s="37"/>
       <c r="C23" s="33" t="s">
         <v>44</v>
@@ -2946,7 +2999,7 @@
       </c>
       <c r="J23" s="113"/>
     </row>
-    <row r="24" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" ht="17" thickBot="1">
       <c r="B24" s="37"/>
       <c r="C24" s="33" t="s">
         <v>45</v>
@@ -2967,7 +3020,7 @@
       </c>
       <c r="J24" s="113"/>
     </row>
-    <row r="25" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" ht="17" thickBot="1">
       <c r="B25" s="37"/>
       <c r="C25" s="33" t="s">
         <v>46</v>
@@ -2988,7 +3041,7 @@
       </c>
       <c r="J25" s="113"/>
     </row>
-    <row r="26" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" ht="17" thickBot="1">
       <c r="B26" s="37"/>
       <c r="C26" s="33" t="s">
         <v>47</v>
@@ -3009,7 +3062,7 @@
       </c>
       <c r="J26" s="113"/>
     </row>
-    <row r="27" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" ht="17" thickBot="1">
       <c r="B27" s="37"/>
       <c r="C27" s="33" t="s">
         <v>50</v>
@@ -3018,19 +3071,19 @@
         <v>2</v>
       </c>
       <c r="E27" s="43">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="F27" s="33"/>
       <c r="G27" s="33" t="s">
         <v>22</v>
       </c>
       <c r="H27" s="33"/>
-      <c r="I27" s="31" t="s">
-        <v>53</v>
+      <c r="I27" s="164" t="s">
+        <v>118</v>
       </c>
       <c r="J27" s="113"/>
     </row>
-    <row r="28" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" ht="17" thickBot="1">
       <c r="B28" s="37"/>
       <c r="C28" s="33" t="s">
         <v>37</v>
@@ -3049,7 +3102,7 @@
       </c>
       <c r="J28" s="113"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:10">
       <c r="B29" s="37"/>
       <c r="C29" s="33"/>
       <c r="D29" s="19"/>
@@ -3060,7 +3113,7 @@
       <c r="I29" s="32"/>
       <c r="J29" s="113"/>
     </row>
-    <row r="30" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" ht="17" thickBot="1">
       <c r="B30" s="37"/>
       <c r="C30" s="14" t="s">
         <v>7</v>
@@ -3073,7 +3126,7 @@
       <c r="I30" s="32"/>
       <c r="J30" s="113"/>
     </row>
-    <row r="31" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" ht="17" thickBot="1">
       <c r="B31" s="37"/>
       <c r="C31" s="33" t="s">
         <v>36</v>
@@ -3094,7 +3147,7 @@
       </c>
       <c r="J31" s="113"/>
     </row>
-    <row r="32" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" ht="17" thickBot="1">
       <c r="B32" s="37"/>
       <c r="C32" s="33" t="s">
         <v>48</v>
@@ -3115,7 +3168,7 @@
       </c>
       <c r="J32" s="113"/>
     </row>
-    <row r="33" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" ht="17" thickBot="1">
       <c r="B33" s="37"/>
       <c r="C33" s="33" t="s">
         <v>49</v>
@@ -3137,7 +3190,7 @@
       </c>
       <c r="J33" s="113"/>
     </row>
-    <row r="34" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" ht="17" thickBot="1">
       <c r="B34" s="37"/>
       <c r="C34" s="33" t="s">
         <v>34</v>
@@ -3156,7 +3209,7 @@
       </c>
       <c r="J34" s="113"/>
     </row>
-    <row r="35" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" ht="17" thickBot="1">
       <c r="B35" s="37"/>
       <c r="C35" s="45" t="s">
         <v>60</v>
@@ -3173,7 +3226,7 @@
       </c>
       <c r="J35" s="113"/>
     </row>
-    <row r="36" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" ht="17" thickBot="1">
       <c r="B36" s="37"/>
       <c r="C36" s="45" t="s">
         <v>61</v>
@@ -3190,7 +3243,7 @@
       </c>
       <c r="J36" s="113"/>
     </row>
-    <row r="37" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" ht="17" thickBot="1">
       <c r="B37" s="37"/>
       <c r="C37" s="45" t="s">
         <v>63</v>
@@ -3207,7 +3260,7 @@
       </c>
       <c r="J37" s="113"/>
     </row>
-    <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" ht="17" thickBot="1">
       <c r="B38" s="37"/>
       <c r="C38" s="45" t="s">
         <v>64</v>
@@ -3224,7 +3277,7 @@
       </c>
       <c r="J38" s="113"/>
     </row>
-    <row r="39" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" ht="17" thickBot="1">
       <c r="B39" s="37"/>
       <c r="C39" s="45" t="s">
         <v>62</v>
@@ -3241,7 +3294,7 @@
       </c>
       <c r="J39" s="113"/>
     </row>
-    <row r="40" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" ht="20" customHeight="1" thickBot="1">
       <c r="B40" s="38"/>
       <c r="C40" s="39"/>
       <c r="D40" s="39"/>
@@ -3262,17 +3315,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="B1:Q14"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="3.42578125" style="71" customWidth="1"/>
     <col min="3" max="3" width="35.85546875" style="71" customWidth="1"/>
@@ -3293,8 +3346,8 @@
     <col min="18" max="16384" width="10.7109375" style="71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:17" ht="17" thickBot="1"/>
+    <row r="2" spans="2:17">
       <c r="B2" s="73"/>
       <c r="C2" s="74"/>
       <c r="D2" s="74"/>
@@ -3312,7 +3365,7 @@
       <c r="P2" s="75"/>
       <c r="Q2" s="74"/>
     </row>
-    <row r="3" spans="2:17" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:17" s="21" customFormat="1">
       <c r="B3" s="20"/>
       <c r="C3" s="117" t="s">
         <v>84</v>
@@ -3346,7 +3399,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:17">
       <c r="B4" s="76"/>
       <c r="C4" s="77"/>
       <c r="D4" s="77"/>
@@ -3364,7 +3417,7 @@
       <c r="P4" s="116"/>
       <c r="Q4" s="139"/>
     </row>
-    <row r="5" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" ht="17" thickBot="1">
       <c r="B5" s="76"/>
       <c r="C5" s="29" t="s">
         <v>83</v>
@@ -3384,7 +3437,7 @@
       <c r="P5" s="10"/>
       <c r="Q5" s="70"/>
     </row>
-    <row r="6" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" ht="17" thickBot="1">
       <c r="B6" s="76"/>
       <c r="C6" s="142" t="s">
         <v>99</v>
@@ -3409,7 +3462,7 @@
       <c r="P6" s="78"/>
       <c r="Q6" s="70"/>
     </row>
-    <row r="7" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" ht="17" thickBot="1">
       <c r="B7" s="76"/>
       <c r="C7" s="138" t="s">
         <v>95</v>
@@ -3440,7 +3493,7 @@
       <c r="P7" s="78"/>
       <c r="Q7" s="90"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:17">
       <c r="B8" s="76"/>
       <c r="C8" s="86"/>
       <c r="D8" s="86"/>
@@ -3458,7 +3511,7 @@
       <c r="P8" s="84"/>
       <c r="Q8" s="118"/>
     </row>
-    <row r="9" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" ht="17" thickBot="1">
       <c r="B9" s="76"/>
       <c r="C9" s="29" t="s">
         <v>7</v>
@@ -3478,7 +3531,7 @@
       <c r="P9" s="12"/>
       <c r="Q9" s="30"/>
     </row>
-    <row r="10" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" ht="17" thickBot="1">
       <c r="B10" s="76"/>
       <c r="C10" s="88" t="s">
         <v>5</v>
@@ -3506,7 +3559,7 @@
       <c r="P10" s="85"/>
       <c r="Q10" s="123"/>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:17">
       <c r="B11" s="76"/>
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
@@ -3524,7 +3577,7 @@
       <c r="P11" s="85"/>
       <c r="Q11" s="70"/>
     </row>
-    <row r="12" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" ht="17" thickBot="1">
       <c r="B12" s="76"/>
       <c r="C12" s="13" t="s">
         <v>85</v>
@@ -3546,7 +3599,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" ht="17" thickBot="1">
       <c r="B13" s="76"/>
       <c r="C13" s="114" t="s">
         <v>86</v>
@@ -3576,7 +3629,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" ht="17" thickBot="1">
       <c r="B14" s="76"/>
       <c r="C14" s="122" t="s">
         <v>87</v>
@@ -3603,7 +3656,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Q13" r:id="rId1"/>
+    <hyperlink ref="Q13" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -3611,8 +3664,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:K17"/>
@@ -3621,7 +3674,7 @@
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="46" customWidth="1"/>
     <col min="2" max="2" width="3.42578125" style="46" customWidth="1"/>
@@ -3635,8 +3688,8 @@
     <col min="12" max="16384" width="33.140625" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11" ht="17" thickBot="1"/>
+    <row r="2" spans="2:11">
       <c r="B2" s="48"/>
       <c r="C2" s="49"/>
       <c r="D2" s="49"/>
@@ -3648,7 +3701,7 @@
       <c r="J2" s="50"/>
       <c r="K2" s="49"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11">
       <c r="B3" s="51"/>
       <c r="C3" s="52" t="s">
         <v>21</v>
@@ -3662,7 +3715,7 @@
       <c r="J3" s="53"/>
       <c r="K3" s="54"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11">
       <c r="B4" s="51"/>
       <c r="C4" s="54"/>
       <c r="D4" s="54"/>
@@ -3674,7 +3727,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11">
       <c r="B5" s="56"/>
       <c r="C5" s="57" t="s">
         <v>29</v>
@@ -3702,7 +3755,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11">
       <c r="B6" s="51"/>
       <c r="C6" s="52"/>
       <c r="D6" s="52"/>
@@ -3714,7 +3767,7 @@
       <c r="J6" s="53"/>
       <c r="K6" s="52"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11">
       <c r="B7" s="51"/>
       <c r="C7" s="65"/>
       <c r="D7" s="59"/>
@@ -3734,7 +3787,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11">
       <c r="B8" s="51"/>
       <c r="C8" s="60" t="s">
         <v>98</v>
@@ -3748,7 +3801,7 @@
       <c r="J8" s="55"/>
       <c r="K8" s="69"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11">
       <c r="B9" s="51"/>
       <c r="C9" s="59"/>
       <c r="D9" s="60"/>
@@ -3760,7 +3813,7 @@
       <c r="J9" s="55"/>
       <c r="K9" s="69"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11" ht="17">
       <c r="B10" s="51"/>
       <c r="C10" s="59"/>
       <c r="D10" s="64"/>
@@ -3780,7 +3833,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11">
       <c r="B11" s="51"/>
       <c r="C11" s="60" t="s">
         <v>98</v>
@@ -3794,7 +3847,7 @@
       <c r="J11" s="62"/>
       <c r="K11" s="59"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11">
       <c r="B12" s="51"/>
       <c r="C12" s="59"/>
       <c r="D12" s="64"/>
@@ -3806,7 +3859,7 @@
       <c r="J12" s="62"/>
       <c r="K12" s="59"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11" ht="17">
       <c r="B13" s="51"/>
       <c r="C13" s="64"/>
       <c r="D13" s="64"/>
@@ -3826,7 +3879,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11">
       <c r="B14" s="51"/>
       <c r="C14" s="64" t="s">
         <v>5</v>
@@ -3840,7 +3893,7 @@
       <c r="J14" s="62"/>
       <c r="K14" s="59"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11">
       <c r="B15" s="51"/>
       <c r="C15" s="59"/>
       <c r="D15" s="64"/>
@@ -3852,7 +3905,7 @@
       <c r="J15" s="62"/>
       <c r="K15" s="59"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:11" ht="17">
       <c r="B16" s="51"/>
       <c r="C16" s="64"/>
       <c r="D16" s="64"/>
@@ -3872,7 +3925,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11">
       <c r="B17" s="51"/>
       <c r="C17" s="145" t="s">
         <v>104</v>
@@ -3892,8 +3945,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
     <tabColor theme="0" tint="-0.14999847407452621"/>
   </sheetPr>
   <dimension ref="B2:K74"/>
@@ -3902,7 +3955,7 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.5703125" style="127" customWidth="1"/>
     <col min="2" max="2" width="4.140625" style="127" customWidth="1"/>
@@ -3913,8 +3966,8 @@
     <col min="12" max="16384" width="10.7109375" style="127"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11" ht="17" thickBot="1"/>
+    <row r="3" spans="2:11">
       <c r="B3" s="128"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -3926,7 +3979,7 @@
       <c r="J3" s="16"/>
       <c r="K3" s="129"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11">
       <c r="B4" s="106"/>
       <c r="C4" s="15" t="s">
         <v>0</v>
@@ -3942,7 +3995,7 @@
       <c r="J4" s="15"/>
       <c r="K4" s="131"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11">
       <c r="B5" s="132"/>
       <c r="C5" s="130"/>
       <c r="D5" s="130"/>
@@ -3954,7 +4007,7 @@
       <c r="J5" s="130"/>
       <c r="K5" s="133"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11">
       <c r="B6" s="132"/>
       <c r="C6" s="154" t="s">
         <v>101</v>
@@ -3968,7 +4021,7 @@
       <c r="J6" s="130"/>
       <c r="K6" s="133"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11">
       <c r="B7" s="132"/>
       <c r="C7" s="144" t="s">
         <v>103</v>
@@ -3982,7 +4035,7 @@
       <c r="J7" s="130"/>
       <c r="K7" s="133"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11">
       <c r="B8" s="132"/>
       <c r="C8" s="130"/>
       <c r="D8" s="130"/>
@@ -3994,7 +4047,7 @@
       <c r="J8" s="130"/>
       <c r="K8" s="133"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11">
       <c r="B9" s="132"/>
       <c r="C9" s="130"/>
       <c r="D9" s="130"/>
@@ -4006,7 +4059,7 @@
       <c r="J9" s="130"/>
       <c r="K9" s="133"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11">
       <c r="B10" s="132"/>
       <c r="C10" s="130"/>
       <c r="D10" s="130"/>
@@ -4018,7 +4071,7 @@
       <c r="J10" s="130"/>
       <c r="K10" s="133"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11">
       <c r="B11" s="132"/>
       <c r="C11" s="130"/>
       <c r="D11" s="130"/>
@@ -4034,7 +4087,7 @@
       <c r="J11" s="130"/>
       <c r="K11" s="133"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11">
       <c r="B12" s="132"/>
       <c r="C12" s="130"/>
       <c r="D12" s="130"/>
@@ -4046,7 +4099,7 @@
       <c r="J12" s="130"/>
       <c r="K12" s="133"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11">
       <c r="B13" s="132"/>
       <c r="C13" s="130"/>
       <c r="D13" s="130"/>
@@ -4058,7 +4111,7 @@
       <c r="J13" s="130"/>
       <c r="K13" s="133"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11">
       <c r="B14" s="132"/>
       <c r="C14" s="130"/>
       <c r="D14" s="130"/>
@@ -4070,7 +4123,7 @@
       <c r="J14" s="130"/>
       <c r="K14" s="133"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11">
       <c r="B15" s="132"/>
       <c r="C15" s="130"/>
       <c r="D15" s="130"/>
@@ -4082,7 +4135,7 @@
       <c r="J15" s="130"/>
       <c r="K15" s="133"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:11">
       <c r="B16" s="132"/>
       <c r="C16" s="130"/>
       <c r="D16" s="130"/>
@@ -4094,7 +4147,7 @@
       <c r="J16" s="130"/>
       <c r="K16" s="133"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11">
       <c r="B17" s="132"/>
       <c r="C17" s="130"/>
       <c r="D17" s="130"/>
@@ -4106,7 +4159,7 @@
       <c r="J17" s="130"/>
       <c r="K17" s="133"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:11">
       <c r="B18" s="132"/>
       <c r="C18" s="130"/>
       <c r="D18" s="109"/>
@@ -4118,7 +4171,7 @@
       <c r="J18" s="130"/>
       <c r="K18" s="133"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:11">
       <c r="B19" s="132"/>
       <c r="C19" s="130"/>
       <c r="D19" s="130"/>
@@ -4130,7 +4183,7 @@
       <c r="J19" s="130"/>
       <c r="K19" s="133"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:11">
       <c r="B20" s="132"/>
       <c r="C20" s="130"/>
       <c r="D20" s="130"/>
@@ -4142,7 +4195,7 @@
       <c r="J20" s="130"/>
       <c r="K20" s="133"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:11">
       <c r="B21" s="132"/>
       <c r="C21" s="130"/>
       <c r="D21" s="130"/>
@@ -4154,7 +4207,7 @@
       <c r="J21" s="130"/>
       <c r="K21" s="133"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:11">
       <c r="B22" s="132"/>
       <c r="C22" s="130"/>
       <c r="D22" s="130"/>
@@ -4166,7 +4219,7 @@
       <c r="J22" s="130"/>
       <c r="K22" s="133"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:11">
       <c r="B23" s="132"/>
       <c r="C23" s="130"/>
       <c r="D23" s="130"/>
@@ -4178,7 +4231,7 @@
       <c r="J23" s="130"/>
       <c r="K23" s="133"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:11">
       <c r="B24" s="132"/>
       <c r="C24" s="130"/>
       <c r="D24" s="130"/>
@@ -4190,7 +4243,7 @@
       <c r="J24" s="130"/>
       <c r="K24" s="133"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:11">
       <c r="B25" s="132"/>
       <c r="C25" s="130"/>
       <c r="D25" s="130"/>
@@ -4202,7 +4255,7 @@
       <c r="J25" s="130"/>
       <c r="K25" s="133"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:11">
       <c r="B26" s="132"/>
       <c r="C26" s="154" t="s">
         <v>105</v>
@@ -4216,7 +4269,7 @@
       <c r="J26" s="130"/>
       <c r="K26" s="133"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:11">
       <c r="B27" s="132"/>
       <c r="C27" s="154" t="s">
         <v>112</v>
@@ -4234,7 +4287,7 @@
       <c r="J27" s="130"/>
       <c r="K27" s="133"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:11">
       <c r="B28" s="132"/>
       <c r="C28" s="130"/>
       <c r="D28" s="130"/>
@@ -4246,7 +4299,7 @@
       <c r="J28" s="130"/>
       <c r="K28" s="133"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:11">
       <c r="B29" s="132"/>
       <c r="C29" s="130"/>
       <c r="D29" s="130"/>
@@ -4258,7 +4311,7 @@
       <c r="J29" s="130"/>
       <c r="K29" s="133"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:11">
       <c r="B30" s="132"/>
       <c r="C30" s="130"/>
       <c r="D30" s="130"/>
@@ -4270,7 +4323,7 @@
       <c r="J30" s="130"/>
       <c r="K30" s="133"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:11">
       <c r="B31" s="132"/>
       <c r="C31" s="130"/>
       <c r="D31" s="130"/>
@@ -4282,7 +4335,7 @@
       <c r="J31" s="130"/>
       <c r="K31" s="133"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:11">
       <c r="B32" s="132"/>
       <c r="C32" s="154" t="s">
         <v>93</v>
@@ -4296,7 +4349,7 @@
       <c r="J32" s="130"/>
       <c r="K32" s="133"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11">
       <c r="B33" s="132"/>
       <c r="C33" s="130"/>
       <c r="D33" s="130"/>
@@ -4308,7 +4361,7 @@
       <c r="J33" s="130"/>
       <c r="K33" s="133"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11">
       <c r="B34" s="132"/>
       <c r="C34" s="130"/>
       <c r="D34" s="130"/>
@@ -4320,7 +4373,7 @@
       <c r="J34" s="130"/>
       <c r="K34" s="133"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11">
       <c r="B35" s="132"/>
       <c r="C35" s="130"/>
       <c r="D35" s="130"/>
@@ -4332,7 +4385,7 @@
       <c r="J35" s="130"/>
       <c r="K35" s="133"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:11">
       <c r="B36" s="132"/>
       <c r="C36" s="130"/>
       <c r="D36" s="130"/>
@@ -4344,7 +4397,7 @@
       <c r="J36" s="130"/>
       <c r="K36" s="133"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11">
       <c r="B37" s="132"/>
       <c r="C37" s="130"/>
       <c r="D37" s="130"/>
@@ -4356,7 +4409,7 @@
       <c r="J37" s="130"/>
       <c r="K37" s="133"/>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11">
       <c r="B38" s="132"/>
       <c r="C38" s="130"/>
       <c r="D38" s="130"/>
@@ -4368,7 +4421,7 @@
       <c r="J38" s="130"/>
       <c r="K38" s="133"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11">
       <c r="B39" s="132"/>
       <c r="C39" s="130"/>
       <c r="D39" s="130"/>
@@ -4380,7 +4433,7 @@
       <c r="J39" s="130"/>
       <c r="K39" s="133"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11">
       <c r="B40" s="132"/>
       <c r="C40" s="130"/>
       <c r="D40" s="130"/>
@@ -4392,7 +4445,7 @@
       <c r="J40" s="130"/>
       <c r="K40" s="133"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11">
       <c r="B41" s="132"/>
       <c r="C41" s="130"/>
       <c r="D41" s="130"/>
@@ -4404,7 +4457,7 @@
       <c r="J41" s="130"/>
       <c r="K41" s="133"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11">
       <c r="B42" s="132"/>
       <c r="C42" s="130"/>
       <c r="D42" s="130"/>
@@ -4418,7 +4471,7 @@
       <c r="J42" s="130"/>
       <c r="K42" s="133"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11">
       <c r="B43" s="132"/>
       <c r="C43" s="130"/>
       <c r="D43" s="130"/>
@@ -4430,7 +4483,7 @@
       <c r="J43" s="130"/>
       <c r="K43" s="133"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11">
       <c r="B44" s="132"/>
       <c r="C44" s="130"/>
       <c r="D44" s="130"/>
@@ -4442,7 +4495,7 @@
       <c r="J44" s="130"/>
       <c r="K44" s="133"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11">
       <c r="B45" s="132"/>
       <c r="C45" s="130"/>
       <c r="D45" s="130"/>
@@ -4454,7 +4507,7 @@
       <c r="J45" s="130"/>
       <c r="K45" s="133"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11">
       <c r="B46" s="132"/>
       <c r="C46" s="130"/>
       <c r="D46" s="130"/>
@@ -4466,7 +4519,7 @@
       <c r="J46" s="130"/>
       <c r="K46" s="133"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11">
       <c r="B47" s="132"/>
       <c r="C47" s="130"/>
       <c r="D47" s="130"/>
@@ -4478,7 +4531,7 @@
       <c r="J47" s="130"/>
       <c r="K47" s="133"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11">
       <c r="B48" s="132"/>
       <c r="C48" s="130"/>
       <c r="D48" s="130"/>
@@ -4490,7 +4543,7 @@
       <c r="J48" s="130"/>
       <c r="K48" s="133"/>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:11">
       <c r="B49" s="132"/>
       <c r="C49" s="130"/>
       <c r="D49" s="130"/>
@@ -4502,7 +4555,7 @@
       <c r="J49" s="130"/>
       <c r="K49" s="133"/>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:11">
       <c r="B50" s="132"/>
       <c r="C50" s="130"/>
       <c r="D50" s="130"/>
@@ -4514,7 +4567,7 @@
       <c r="J50" s="130"/>
       <c r="K50" s="133"/>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:11">
       <c r="B51" s="132"/>
       <c r="C51" s="130"/>
       <c r="D51" s="130"/>
@@ -4526,7 +4579,7 @@
       <c r="J51" s="130"/>
       <c r="K51" s="133"/>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:11">
       <c r="B52" s="132"/>
       <c r="C52" s="130"/>
       <c r="D52" s="130"/>
@@ -4538,7 +4591,7 @@
       <c r="J52" s="130"/>
       <c r="K52" s="133"/>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:11">
       <c r="B53" s="132"/>
       <c r="C53" s="130"/>
       <c r="D53" s="130"/>
@@ -4550,7 +4603,7 @@
       <c r="J53" s="130"/>
       <c r="K53" s="133"/>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:11">
       <c r="B54" s="132"/>
       <c r="C54" s="130"/>
       <c r="D54" s="130"/>
@@ -4562,7 +4615,7 @@
       <c r="J54" s="130"/>
       <c r="K54" s="133"/>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:11">
       <c r="B55" s="132"/>
       <c r="C55" s="130"/>
       <c r="D55" s="130"/>
@@ -4574,7 +4627,7 @@
       <c r="J55" s="130"/>
       <c r="K55" s="133"/>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:11">
       <c r="B56" s="132"/>
       <c r="C56" s="130"/>
       <c r="D56" s="130"/>
@@ -4586,7 +4639,7 @@
       <c r="J56" s="130"/>
       <c r="K56" s="133"/>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:11">
       <c r="B57" s="132"/>
       <c r="C57" s="130"/>
       <c r="D57" s="130"/>
@@ -4598,7 +4651,7 @@
       <c r="J57" s="130"/>
       <c r="K57" s="133"/>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:11">
       <c r="B58" s="132"/>
       <c r="C58" s="130"/>
       <c r="D58" s="130"/>
@@ -4610,7 +4663,7 @@
       <c r="J58" s="130"/>
       <c r="K58" s="133"/>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:11">
       <c r="B59" s="132"/>
       <c r="C59" s="130"/>
       <c r="D59" s="130"/>
@@ -4622,7 +4675,7 @@
       <c r="J59" s="130"/>
       <c r="K59" s="133"/>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:11">
       <c r="B60" s="132"/>
       <c r="C60" s="130"/>
       <c r="D60" s="130"/>
@@ -4634,7 +4687,7 @@
       <c r="J60" s="130"/>
       <c r="K60" s="133"/>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:11">
       <c r="B61" s="132"/>
       <c r="C61" s="130"/>
       <c r="D61" s="130"/>
@@ -4646,7 +4699,7 @@
       <c r="J61" s="130"/>
       <c r="K61" s="133"/>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:11">
       <c r="B62" s="132"/>
       <c r="C62" s="130"/>
       <c r="D62" s="130"/>
@@ -4658,7 +4711,7 @@
       <c r="J62" s="130"/>
       <c r="K62" s="133"/>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:11">
       <c r="B63" s="132"/>
       <c r="C63" s="154" t="s">
         <v>97</v>
@@ -4672,7 +4725,7 @@
       <c r="J63" s="130"/>
       <c r="K63" s="133"/>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:11">
       <c r="B64" s="132"/>
       <c r="C64" s="130"/>
       <c r="D64" s="130"/>
@@ -4684,7 +4737,7 @@
       <c r="J64" s="130"/>
       <c r="K64" s="133"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:11">
       <c r="B65" s="132"/>
       <c r="C65" s="130"/>
       <c r="D65" s="130"/>
@@ -4696,7 +4749,7 @@
       <c r="J65" s="130"/>
       <c r="K65" s="133"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:11">
       <c r="B66" s="132"/>
       <c r="C66" s="130"/>
       <c r="D66" s="130"/>
@@ -4708,7 +4761,7 @@
       <c r="J66" s="130"/>
       <c r="K66" s="133"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:11">
       <c r="B67" s="132"/>
       <c r="C67" s="130"/>
       <c r="D67" s="130"/>
@@ -4720,7 +4773,7 @@
       <c r="J67" s="130"/>
       <c r="K67" s="133"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:11">
       <c r="B68" s="132"/>
       <c r="C68" s="130"/>
       <c r="D68" s="130"/>
@@ -4734,7 +4787,7 @@
       <c r="J68" s="130"/>
       <c r="K68" s="133"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:11">
       <c r="B69" s="132"/>
       <c r="C69" s="130"/>
       <c r="D69" s="130"/>
@@ -4746,7 +4799,7 @@
       <c r="J69" s="130"/>
       <c r="K69" s="133"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:11">
       <c r="B70" s="132"/>
       <c r="C70" s="130"/>
       <c r="D70" s="130"/>
@@ -4758,7 +4811,7 @@
       <c r="J70" s="130"/>
       <c r="K70" s="133"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:11">
       <c r="B71" s="132"/>
       <c r="C71" s="130"/>
       <c r="D71" s="130"/>
@@ -4770,7 +4823,7 @@
       <c r="J71" s="130"/>
       <c r="K71" s="133"/>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:11">
       <c r="B72" s="132"/>
       <c r="C72" s="130"/>
       <c r="D72" s="130"/>
@@ -4782,7 +4835,7 @@
       <c r="J72" s="130"/>
       <c r="K72" s="133"/>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:11">
       <c r="B73" s="132"/>
       <c r="C73" s="130"/>
       <c r="D73" s="130"/>
@@ -4794,7 +4847,7 @@
       <c r="J73" s="130"/>
       <c r="K73" s="133"/>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:11">
       <c r="B74" s="132"/>
       <c r="C74" s="130"/>
       <c r="D74" s="130"/>
